--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_6_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_6_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757540.46298215</v>
+        <v>2757540.462982149</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.79076397</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177834</v>
+        <v>3940022.79076397</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570965302.325459</v>
+        <v>59684342.42064519</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200952</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205679</v>
+        <v>107.395987820568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200952</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V5" t="n">
         <v>629.8510241668239</v>
@@ -1001,7 +1001,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>107.395987820568</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F8" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150318</v>
       </c>
       <c r="G8" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>107.3959878205679</v>
+        <v>107.395987820568</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468699</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500141</v>
       </c>
       <c r="D14" t="n">
         <v>410.3391557398498</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U17" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088976</v>
       </c>
       <c r="V17" t="n">
         <v>629.8510241668239</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756825</v>
       </c>
       <c r="T20" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U20" t="n">
         <v>648.751427201877</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
         <v>408.192915058951</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963201041</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2629,7 +2629,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="27">
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
         <v>404.3632896068686</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406130752</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>403.5012844150336</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
         <v>408.192915058951</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522539</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3249,16 +3249,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X34" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
         <v>410.3391557398498</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>14.39810218700129</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3520,7 +3520,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G38" t="n">
         <v>397.8840054528454</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S45" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546126</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048152</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351334</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071669</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342835</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233285</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>2257.013012360075</v>
+        <v>2936.062862426062</v>
       </c>
       <c r="M2" t="n">
-        <v>3788.860546968407</v>
+        <v>3418.242061939564</v>
       </c>
       <c r="N2" t="n">
-        <v>4353.903610841079</v>
+        <v>3983.285125812236</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>4893.44000875298</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197776</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183176</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464003</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542914</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576681885</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908802</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665703</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430545</v>
       </c>
     </row>
     <row r="3">
@@ -4494,28 +4494,28 @@
         <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967135</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966357</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966357</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
-        <v>351.2038120028187</v>
+        <v>351.2038120028186</v>
       </c>
       <c r="R4" t="n">
         <v>140.96</v>
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546126</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048152</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351334</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071669</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342835</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233285</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>2814.780508913348</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N5" t="n">
-        <v>3379.82357278602</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O5" t="n">
-        <v>5124.203572786019</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P5" t="n">
-        <v>5960.070900883433</v>
+        <v>6591.179490197776</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183176</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464003</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542914</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.19576681885</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908802</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665703</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430545</v>
       </c>
     </row>
     <row r="6">
@@ -4731,7 +4731,7 @@
         <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967135</v>
       </c>
       <c r="K7" t="n">
         <v>307.8416045893196</v>
@@ -4743,10 +4743,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>438.463966970767</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546126</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048152</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351334</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071669</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>599.7771454756521</v>
+        <v>974.1471760311897</v>
       </c>
       <c r="K8" t="n">
-        <v>1339.420289043491</v>
+        <v>1713.790319599029</v>
       </c>
       <c r="L8" t="n">
-        <v>2257.013012360075</v>
+        <v>2631.383042915612</v>
       </c>
       <c r="M8" t="n">
-        <v>3788.860546968407</v>
+        <v>4163.230577523944</v>
       </c>
       <c r="N8" t="n">
-        <v>4353.903610841079</v>
+        <v>4728.273641396616</v>
       </c>
       <c r="O8" t="n">
-        <v>5264.058493781823</v>
+        <v>5638.42852433736</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434773</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236995</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183176</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464003</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542914</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576681885</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908802</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665703</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430545</v>
       </c>
     </row>
     <row r="9">
@@ -4968,10 +4968,10 @@
         <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967135</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
         <v>457.4949902104935</v>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546126</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048152</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5047,52 +5047,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987068</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.58008885974</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100363</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197776</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183176</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464003</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542914</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576681885</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908802</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665703</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430545</v>
       </c>
     </row>
     <row r="12">
@@ -5120,7 +5120,7 @@
         <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546878</v>
       </c>
       <c r="I12" t="n">
         <v>140.96</v>
@@ -5205,7 +5205,7 @@
         <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967135</v>
       </c>
       <c r="K13" t="n">
         <v>307.8416045893196</v>
@@ -5235,13 +5235,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546126</v>
       </c>
       <c r="C14" t="n">
         <v>2126.146990020859</v>
@@ -5290,46 +5290,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2819.17922466306</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>3301.358424176563</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N14" t="n">
-        <v>3866.401488049235</v>
+        <v>4845.157279159619</v>
       </c>
       <c r="O14" t="n">
-        <v>4776.556370989979</v>
+        <v>5755.312162100363</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197776</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183176</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464003</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542914</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.19576681885</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908802</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665703</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430545</v>
       </c>
     </row>
     <row r="15">
@@ -5357,7 +5357,7 @@
         <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546878</v>
       </c>
       <c r="I15" t="n">
         <v>140.96</v>
@@ -5442,7 +5442,7 @@
         <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967135</v>
       </c>
       <c r="K16" t="n">
         <v>307.8416045893196</v>
@@ -5472,10 +5472,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5530,16 +5530,16 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M17" t="n">
-        <v>3864.448844008177</v>
+        <v>3194.417427023047</v>
       </c>
       <c r="N17" t="n">
-        <v>4429.491907880849</v>
+        <v>4845.157279159619</v>
       </c>
       <c r="O17" t="n">
-        <v>5339.646790821593</v>
+        <v>5755.312162100363</v>
       </c>
       <c r="P17" t="n">
-        <v>6175.514118919006</v>
+        <v>6591.179490197776</v>
       </c>
       <c r="Q17" t="n">
         <v>7048</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183176</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464003</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="18">
@@ -5594,7 +5594,7 @@
         <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546878</v>
       </c>
       <c r="I18" t="n">
         <v>140.96</v>
@@ -5679,7 +5679,7 @@
         <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967135</v>
       </c>
       <c r="K19" t="n">
         <v>307.8416045893196</v>
@@ -5715,7 +5715,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
         <v>140.96</v>
@@ -5755,28 +5755,28 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1765.421978263786</v>
+        <v>2018.470139109487</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.241463236568</v>
+        <v>2936.06286242607</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750071</v>
+        <v>3418.242061939573</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622743</v>
+        <v>3983.285125812245</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563487</v>
+        <v>4893.440008752988</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197785</v>
       </c>
       <c r="Q20" t="n">
         <v>7048</v>
@@ -5785,7 +5785,7 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
         <v>6118.11576243671</v>
@@ -5861,19 +5861,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W21" t="n">
         <v>3503.082427021609</v>
@@ -5922,28 +5922,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546135</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048162</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351343</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071678</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342926</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233376</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397705</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154227</v>
       </c>
       <c r="K23" t="n">
-        <v>1830.673957362034</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>2748.266680678617</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>4280.114215286949</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N23" t="n">
-        <v>4845.157279159621</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100365</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>5987.71793717156</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818859</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908811</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665712</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430554</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K24" t="n">
         <v>1250.415257213079</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U25" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="26">
@@ -6238,19 +6238,19 @@
         <v>1841.010275303557</v>
       </c>
       <c r="L26" t="n">
-        <v>2758.60299862014</v>
+        <v>3585.390275303557</v>
       </c>
       <c r="M26" t="n">
-        <v>3670.420662750071</v>
+        <v>4067.56947481706</v>
       </c>
       <c r="N26" t="n">
-        <v>4235.463726622743</v>
+        <v>4632.612538689732</v>
       </c>
       <c r="O26" t="n">
-        <v>5145.618609563487</v>
+        <v>5542.767421630476</v>
       </c>
       <c r="P26" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q26" t="n">
         <v>7048</v>
@@ -6259,22 +6259,22 @@
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
         <v>3067.029708403252</v>
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6393,40 +6393,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W28" t="n">
         <v>140.96</v>
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G29" t="n">
         <v>492.3327682960356</v>
@@ -6469,25 +6469,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>1055.002360625126</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399844</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M29" t="n">
-        <v>3864.448844008177</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N29" t="n">
-        <v>4429.491907880849</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q29" t="n">
         <v>7048</v>
@@ -6496,25 +6496,25 @@
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="30">
@@ -6630,37 +6630,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V31" t="n">
         <v>140.96</v>
@@ -6682,16 +6682,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6706,52 +6706,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L32" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235904</v>
+        <v>3409.404159986191</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927298</v>
+        <v>3044.656773677586</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.91243893972</v>
+        <v>2693.204564690007</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402434</v>
+        <v>2347.071133152721</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500332</v>
+        <v>2004.004221700321</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448407</v>
+        <v>1678.148658495128</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546879</v>
+        <v>1373.282113404975</v>
       </c>
       <c r="I33" t="n">
-        <v>140.96</v>
+        <v>1263.252125750287</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149217</v>
+        <v>1681.139655265209</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213079</v>
+        <v>2372.707382963366</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374317</v>
+        <v>3319.562910124604</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117176</v>
+        <v>4193.926001867463</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421531</v>
+        <v>5136.352329965597</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182049</v>
+        <v>6115.605331932335</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368536</v>
+        <v>6822.218901118822</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249716</v>
+        <v>7048</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>6692.281432123194</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>6279.965356306072</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>5883.307607944565</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>5479.263552917123</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>5060.565909289325</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021609</v>
+        <v>4625.374552771897</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804046</v>
+        <v>4201.270775554333</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545324</v>
+        <v>3797.845126295611</v>
       </c>
     </row>
     <row r="34">
@@ -6867,43 +6867,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V34" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W34" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
         <v>140.96</v>
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -6952,43 +6952,43 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>2814.780508913348</v>
+        <v>3418.242061939568</v>
       </c>
       <c r="N35" t="n">
-        <v>3379.82357278602</v>
+        <v>3983.28512581224</v>
       </c>
       <c r="O35" t="n">
-        <v>4776.556370989979</v>
+        <v>4893.440008752984</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="36">
@@ -7104,37 +7104,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="V37" t="n">
         <v>140.96</v>
@@ -7156,16 +7156,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F38" t="n">
         <v>894.2358041069906</v>
@@ -7183,49 +7183,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1677.761866429961</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399844</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M38" t="n">
-        <v>3670.420662750071</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N38" t="n">
-        <v>4235.463726622743</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O38" t="n">
-        <v>5145.618609563487</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P38" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="39">
@@ -7341,40 +7341,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7420,22 +7420,22 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>2049.12665539136</v>
+        <v>1408.776586572604</v>
       </c>
       <c r="L41" t="n">
-        <v>3793.50665539136</v>
+        <v>2326.369309889187</v>
       </c>
       <c r="M41" t="n">
-        <v>4275.685854904863</v>
+        <v>2808.54850940269</v>
       </c>
       <c r="N41" t="n">
-        <v>4840.728918777535</v>
+        <v>3373.591573275362</v>
       </c>
       <c r="O41" t="n">
-        <v>5750.883801718279</v>
+        <v>4283.746456216106</v>
       </c>
       <c r="P41" t="n">
-        <v>6586.751129815692</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q41" t="n">
         <v>7048</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="42">
@@ -7520,19 +7520,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
@@ -7578,37 +7578,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
         <v>140.96</v>
@@ -7654,19 +7654,19 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L44" t="n">
-        <v>3468.309364968008</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M44" t="n">
-        <v>3950.48856448151</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N44" t="n">
-        <v>4515.531628354182</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O44" t="n">
         <v>5755.312162100365</v>
@@ -7681,7 +7681,7 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
         <v>6118.11576243671</v>
@@ -7757,7 +7757,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
@@ -7818,34 +7818,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7990,25 +7990,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>609.5571242689059</v>
       </c>
       <c r="M2" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>378.1515460156954</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -8230,22 +8230,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>496.2158265843834</v>
       </c>
       <c r="Q5" t="n">
-        <v>519.419142981154</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>301.7997308240073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>378.1515460156952</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8704,22 +8704,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>315.9139665186111</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>419.8640113926972</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8938,25 +8938,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>567.8446588919046</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>496.2158265843841</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>383.4716344542417</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>419.8640113926992</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>176.4768357656695</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>609.5571242689143</v>
       </c>
       <c r="L20" t="n">
-        <v>510.3300622789889</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>496.2158265843866</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>491.4928437002237</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>835.1386633165835</v>
       </c>
       <c r="M26" t="n">
-        <v>433.9782470873013</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,10 +9898,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>214.6916570402934</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>176.4768357656695</v>
@@ -10117,7 +10117,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>383.4716344542459</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
-        <v>419.864011392699</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>931.7660397881849</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>383.4716344542448</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>609.5571242689094</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>870.5779326741233</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>265.4073538855554</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>864.2829836734576</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>70.05686619102312</v>
       </c>
       <c r="L41" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.473091295036454</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>176.4768357656695</v>
@@ -11302,10 +11302,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>637.4834235498433</v>
       </c>
       <c r="O44" t="n">
-        <v>332.9552028337762</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.388344292979866</v>
       </c>
       <c r="E11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528331</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.388344292979752</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278982</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.388344292979468</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278982</v>
       </c>
       <c r="W19" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292971965</v>
       </c>
       <c r="T20" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
@@ -24171,7 +24171,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292971112</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
         <v>226.3728098387097</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24669,7 +24669,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.53369995757464</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25137,16 +25137,16 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X34" t="n">
-        <v>233.0455432431063</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
         <v>287.4653528494624</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S45" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26085,10 +26085,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16043.16799238382</v>
+        <v>1328579.677534699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31819.98527572747</v>
+        <v>2619441.143875608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47596.80255907112</v>
+        <v>3910302.610216519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65553.46547814</v>
+        <v>5066546.631206329</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83510.12839720887</v>
+        <v>6222790.652196138</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101466.7913162778</v>
+        <v>7379034.67318594</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119423.4542353466</v>
+        <v>8535278.694175741</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137380.1171544155</v>
+        <v>9691522.715165541</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155336.7800734843</v>
+        <v>10847766.73615534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173293.4429925532</v>
+        <v>12004010.75714514</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191250.1059116221</v>
+        <v>13160254.77813494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209206.7688306909</v>
+        <v>14316498.79912475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227163.43174976</v>
+        <v>15472742.82011458</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245120.0946688291</v>
+        <v>16628986.8411044</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263076.7575878981</v>
+        <v>17785230.86209422</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411318</v>
+        <v>913048.3542411308</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411317</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411317</v>
+        <v>913048.3542411316</v>
       </c>
       <c r="E2" t="n">
         <v>817831.1367976688</v>
@@ -26334,16 +26334,16 @@
         <v>817831.1367976688</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976684</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976691</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976696</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="K2" t="n">
         <v>817831.1367976688</v>
@@ -26355,13 +26355,13 @@
         <v>817831.1367976688</v>
       </c>
       <c r="N2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976686</v>
       </c>
     </row>
     <row r="3">
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114221.2779508281</v>
+        <v>114221.2779508282</v>
       </c>
       <c r="C4" t="n">
         <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.9662264139</v>
+        <v>113616.966226414</v>
       </c>
       <c r="E4" t="n">
+        <v>38928.93672769589</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38928.93672769589</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38928.93672769589</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38928.93672769599</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38928.93672769598</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38928.93672769594</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38928.93672769595</v>
+      </c>
+      <c r="L4" t="n">
+        <v>38928.93672769593</v>
+      </c>
+      <c r="M4" t="n">
         <v>38928.93672769592</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>38928.93672769595</v>
+      </c>
+      <c r="O4" t="n">
+        <v>38928.93672769593</v>
+      </c>
+      <c r="P4" t="n">
         <v>38928.93672769591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38928.93672769591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38928.93672769591</v>
-      </c>
-      <c r="K4" t="n">
-        <v>38928.93672769591</v>
-      </c>
-      <c r="L4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>38928.93672769591</v>
-      </c>
-      <c r="N4" t="n">
-        <v>38928.93672769591</v>
-      </c>
-      <c r="O4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>38928.93672769592</v>
       </c>
     </row>
     <row r="5">
@@ -26527,13 +26527,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1418478.923709696</v>
+        <v>-1418478.923709697</v>
       </c>
       <c r="C6" t="n">
-        <v>626522.0273447844</v>
+        <v>626522.0273447847</v>
       </c>
       <c r="D6" t="n">
-        <v>626824.3880147177</v>
+        <v>626824.3880147176</v>
       </c>
       <c r="E6" t="n">
         <v>639922.8000699729</v>
@@ -26542,34 +26542,34 @@
         <v>639922.8000699729</v>
       </c>
       <c r="G6" t="n">
+        <v>639922.8000699725</v>
+      </c>
+      <c r="H6" t="n">
         <v>639922.8000699729</v>
       </c>
-      <c r="H6" t="n">
-        <v>639922.8000699732</v>
-      </c>
       <c r="I6" t="n">
-        <v>639922.8000699731</v>
+        <v>639922.8000699736</v>
       </c>
       <c r="J6" t="n">
-        <v>19698.80006997276</v>
+        <v>19698.80006997357</v>
       </c>
       <c r="K6" t="n">
+        <v>639922.8000699728</v>
+      </c>
+      <c r="L6" t="n">
         <v>639922.8000699729</v>
-      </c>
-      <c r="L6" t="n">
-        <v>639922.800069973</v>
       </c>
       <c r="M6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="N6" t="n">
+        <v>639922.8000699731</v>
+      </c>
+      <c r="O6" t="n">
         <v>639922.8000699726</v>
       </c>
-      <c r="O6" t="n">
-        <v>639922.8000699729</v>
-      </c>
       <c r="P6" t="n">
-        <v>639922.8000699731</v>
+        <v>639922.8000699728</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292979923</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292979923</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573006</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>388.0294482079483</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.388344292980037</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573006</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28164,13 +28164,13 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.85592323974635</v>
+        <v>183.0209592207301</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
@@ -34825,34 +34825,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834174</v>
+        <v>1536.418460952323</v>
       </c>
       <c r="M2" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>1297.499912622508</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35062,34 +35062,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1340.526259006014</v>
       </c>
       <c r="Q5" t="n">
-        <v>980.8540013672364</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809838</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>463.4516620966183</v>
+        <v>765.2513929206256</v>
       </c>
       <c r="K8" t="n">
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M8" t="n">
         <v>1547.320742028618</v>
@@ -35320,7 +35320,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1222.461978437325</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
@@ -35460,13 +35460,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>151.1650359809838</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35539,7 +35539,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
         <v>747.114286432161</v>
@@ -35548,22 +35548,22 @@
         <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>802.9636629968968</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1339.212377999509</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35782,25 +35782,25 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>1494.705995575322</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>1066.96639615274</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36022,10 +36022,10 @@
         <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
-        <v>1547.320742028618</v>
+        <v>870.5213309325272</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
@@ -36034,7 +36034,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>881.2988697787815</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>1356.671410701075</v>
       </c>
       <c r="L20" t="n">
-        <v>1437.191398962406</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36268,10 +36268,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36484,19 +36484,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1243.330113016547</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>952.9277020863061</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36730,10 +36730,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M26" t="n">
-        <v>921.0279435655868</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36742,10 +36742,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1059.002089461924</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,22 +36961,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>463.4516620966183</v>
+        <v>846.9232965508642</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321605</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M29" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
-        <v>1339.212377999511</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
@@ -37198,7 +37198,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
         <v>747.114286432161</v>
@@ -37207,13 +37207,13 @@
         <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
-        <v>1418.815736266471</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1302.820001061057</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
@@ -37222,7 +37222,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37444,13 +37444,13 @@
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1096.606820747195</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1410.84121030703</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
         <v>1714.888365095753</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37675,16 +37675,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>1012.521640317716</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>1351.332680151743</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37693,10 +37693,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37912,10 +37912,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.989403955261</v>
+        <v>817.171152623184</v>
       </c>
       <c r="L41" t="n">
-        <v>1762</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
-        <v>465.9079496811189</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38146,10 +38146,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
         <v>926.861336683417</v>
@@ -38158,10 +38158,10 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1208.233993118199</v>
       </c>
       <c r="O44" t="n">
-        <v>1252.303569440588</v>
+        <v>1762</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
